--- a/data/trans_bre/P9_2_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P9_2_R-Habitat-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que dejo de hacer algunas tareas por problemas físicos</t>
+          <t>Población que dejó de hacer algunas tareas por problemas físicos</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 15,11</t>
+          <t>0,69; 15,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 22,21</t>
+          <t>2,18; 22,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 16,23</t>
+          <t>-4,25; 16,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 10,29</t>
+          <t>-9,8; 9,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 528,79</t>
+          <t>-9,94; 527,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,31; 253,62</t>
+          <t>10,79; 250,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-32,26; 149,36</t>
+          <t>-23,34; 159,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-35,04; 80,65</t>
+          <t>-35,36; 72,24</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 4,83</t>
+          <t>-1,37; 4,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 12,79</t>
+          <t>3,9; 12,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,02; 16,85</t>
+          <t>8,27; 17,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 9,51</t>
+          <t>1,72; 9,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,71; 72,72</t>
+          <t>-14,51; 76,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,1; 131,0</t>
+          <t>27,17; 135,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>61,93; 193,5</t>
+          <t>65,35; 192,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,98; 82,78</t>
+          <t>11,04; 86,63</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 8,22</t>
+          <t>2,45; 8,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,92; 13,61</t>
+          <t>7,02; 13,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 10,6</t>
+          <t>4,65; 10,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,27; 11,34</t>
+          <t>5,35; 11,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,84; 121,19</t>
+          <t>26,65; 118,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>50,03; 129,58</t>
+          <t>50,43; 130,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>43,37; 135,41</t>
+          <t>44,25; 138,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,86; 121,22</t>
+          <t>41,51; 126,87</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 11,48</t>
+          <t>4,33; 11,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 12,44</t>
+          <t>5,3; 12,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,91; 12,42</t>
+          <t>5,66; 12,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 6,28</t>
+          <t>-4,24; 6,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,55; 149,91</t>
+          <t>39,99; 158,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,09; 177,78</t>
+          <t>50,87; 178,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>71,11; 219,49</t>
+          <t>64,51; 210,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,69; 49,36</t>
+          <t>-26,36; 48,51</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,16; 12,06</t>
+          <t>5,9; 11,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,94; 11,12</t>
+          <t>4,87; 11,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,19; 10,48</t>
+          <t>4,31; 10,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,47; 11,68</t>
+          <t>5,47; 11,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>65,58; 180,77</t>
+          <t>62,06; 171,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,86; 116,82</t>
+          <t>38,06; 120,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>35,2; 125,85</t>
+          <t>36,37; 124,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>39,44; 109,69</t>
+          <t>38,36; 106,79</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,12</t>
+          <t>4,79; 8,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,22; 10,66</t>
+          <t>7,25; 11,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,71; 10,28</t>
+          <t>6,77; 10,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,26; 8,14</t>
+          <t>4,14; 8,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>55,91; 108,45</t>
+          <t>53,75; 106,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>61,6; 105,61</t>
+          <t>61,65; 108,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>67,2; 119,04</t>
+          <t>67,16; 119,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>31,95; 67,53</t>
+          <t>30,55; 67,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P9_2_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P9_2_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 15,79</t>
+          <t>0,01; 15,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,18; 22,74</t>
+          <t>3,05; 23,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 16,36</t>
+          <t>-5,09; 16,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 527,15</t>
+          <t>-13,92; 557,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,79; 250,13</t>
+          <t>18,79; 253,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 159,66</t>
+          <t>-26,93; 160,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 4,88</t>
+          <t>-1,44; 5,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,9; 12,81</t>
+          <t>3,95; 12,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,27; 17,29</t>
+          <t>8,02; 16,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 76,02</t>
+          <t>-14,65; 79,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,17; 135,05</t>
+          <t>28,42; 130,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>65,35; 192,96</t>
+          <t>63,31; 197,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 8,37</t>
+          <t>2,67; 8,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,02; 13,85</t>
+          <t>6,92; 13,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,65; 10,63</t>
+          <t>4,66; 10,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,65; 118,86</t>
+          <t>27,37; 120,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>50,43; 130,61</t>
+          <t>51,06; 131,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>44,25; 138,04</t>
+          <t>43,12; 138,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 11,46</t>
+          <t>4,23; 11,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 12,62</t>
+          <t>5,25; 12,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,66; 12,17</t>
+          <t>5,64; 12,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,99; 158,53</t>
+          <t>43,87; 157,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,87; 178,34</t>
+          <t>47,44; 175,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>64,51; 210,79</t>
+          <t>63,05; 206,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,9; 11,88</t>
+          <t>6,13; 11,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,87; 11,55</t>
+          <t>4,66; 11,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,31; 10,4</t>
+          <t>4,33; 10,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>62,06; 171,24</t>
+          <t>63,72; 168,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,06; 120,85</t>
+          <t>35,61; 118,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>36,37; 124,82</t>
+          <t>39,19; 127,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,79; 8,02</t>
+          <t>4,96; 7,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,25; 11,01</t>
+          <t>7,14; 10,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,77; 10,22</t>
+          <t>6,74; 10,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>53,75; 106,62</t>
+          <t>56,03; 105,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>61,65; 108,07</t>
+          <t>60,35; 103,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>67,16; 119,8</t>
+          <t>66,87; 117,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
